--- a/data/georgia_census/kakheti/lagodexi/average_wages.xlsx
+++ b/data/georgia_census/kakheti/lagodexi/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBD3F1F8-B395-4E90-B3ED-801038BC11BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E04874F-CC2F-4CE0-8455-D1E5BD9CB59C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484E7F44-FABD-4094-B45E-6E0A15888422}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78B3DF2-EB29-45CB-8842-E3810D80F37B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5854695-CD0C-402F-A8ED-A0FE71A6EF51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B88F59B7-A7E8-4200-9485-30E751171F66}"/>
 </file>